--- a/Summon-cardlist-2021-07-23.xlsx
+++ b/Summon-cardlist-2021-07-23.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -413,14 +425,1587 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>manaCost</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cmc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>colors</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>colorIdentity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>types</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rarity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>setName</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>artist</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>toughness</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>layout</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>multiverseid</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>imageUrl</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>rulings</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>printings</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>originalText</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>originalType</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>subtypes</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>flavor</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>variations</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Xyru Specter</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{2}{B}{B}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Black']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['B']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Summon Specter</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Summon', 'Specter']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CMB1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Mystery Booster Playtest Cards</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Flying
+Whenever Xyru Specter deals damage to an opponent, that player discards a card unless they challenge you. If challenged, and you show them two black cards in your hand, they must discard two cards.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Jeff Stewart</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>476181</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>http://gatherer.wizards.com/Handlers/Image.ashx?multiverseid=476181&amp;type=card</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[{'date': '2019-11-12', 'text': 'If you’re challenged, you may reveal any number of cards from your hand. The effect that allowed a player to challenge you will specify what you must reveal to win the challenge.'}, {'date': '2019-11-12', 'text': '“Summon” isn’t a card type. Xyru Specter is a creature.'}]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>['CMB1']</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Flying
+When CARDNAME deals damage to an opponent, that player discards a card unless they challenge you. If challenged, and you show them two black cards in your hand, they must discard two cards.</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Summon — Specter</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>f608f779-bba6-5924-b6e8-32f3e2627330</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Throat Wolf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{1}{R}{R}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Red']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['R']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Summon Wolf</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Summon', 'Wolf']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CMB1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Mystery Booster Playtest Cards</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>You may cast Throat Wolf during an opponent's combat phase.
+Firstest strike (This creature deals combat damage to creatures before creatures with first strike.)
+After each opponent's first combat phase of each turn, there is an additional combat phase. Only Throat Wolf can attack during that combat phase.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Sam Stoddard</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>476195</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>http://gatherer.wizards.com/Handlers/Image.ashx?multiverseid=476195&amp;type=card</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>[{'date': '2019-11-12', 'text': '“Summon” isn’t a card type. Throat Wolf is a creature.'}, {'date': '2019-11-12', 'text': 'As the declare blockers step ends, if any creatures have firstest strike, there’s an additional combat step where only those creatures deal damage. The game waits until after this step to determine whether there will be a first-strike combat damage step.'}, {'date': '2019-11-12', 'text': 'If a creature with firstest strike enters the battlefield during the firstest-strike combat damage step or the first-strike combat damage step, it deals regular combat damage instead.'}, {'date': '2019-11-12', 'text': 'If a creature with firstest strike gains first strike, it deals damage during the first strike and firstest strike combat damage steps. If it gains double strike, it deals damage during all three combat damage steps.'}, {'date': '2019-11-12', 'text': 'Throat Wolf’s last ability reads like it’s pointless. Only Throat Wolf can attack, but it can’t attack, so nothing can attack. Rather than assume the text is pointless, this ability should be played as though it read “After each opponent’s first combat phase on each turn, you have a combat phase. Only Throat Wolf can attack during that combat phase.”'}, {'date': '2019-11-12', 'text': 'While it’s your combat phase during your opponent’s turn, you’re the active player and the attacking player. However, any rules or effects that check whose turn it is will still know that it’s your opponent’s turn.'}, {'date': '2019-11-12', 'text': 'If two players each control Throat Wolf, player A’s first combat phase will be followed by player B’s first combat phase from B’s Throat Wolf, which will be followed by player A’s second combat from A’s Throat Wolf. On player C’s turn (where C is the active player and player A is the next player in turn order) player C’s combat phase is followed by player A’s combat phase, then player B’s combat phase following player A’s, then player A’s following player B’s, then player B’s that follows player C’s finally happens.'}]</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>['CMB1']</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>You may cast CARDNAME during an opponent's combat phase.
+Firstest strike (This creature deals combat damage to creatures before creatures with first strike.)
+After each opponent's first combat phase of each turn, there is an additional combat phase. Only CARDNAME can attack during that combat phase.</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Summon Wolf</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>c8e709b1-5679-57c6-b0bd-cc578af132c6</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aswan Jaguar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{1}{G}{G}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Green']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['G']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Summon Jaguar</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Summon', 'Jaguar']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PAST</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Astral Cards</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>When Aswan Jaguar comes into play, choose a random creature type from those in target opponent's deck.
+{G}{G}, {T}: Bury target creature of the chosen type.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Pat Lewis</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>['PAST', 'PMIC']</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>d5ea3e37-a6a9-5ff1-8216-58b0ece03a4c</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faerie Dragon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{2}{G}{G}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['Green']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['G']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Summon Dragon</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Summon', 'Dragon']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PAST</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Astral Cards</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Flying
+{1}{G}{G}: Play a random effect.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NéNé Thomas</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>['PAST']</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>4904b7e5-19df-5d3f-8d01-f7f14afa2c94</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Goblin Polka Band</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{R}{R}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['Red']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['R']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Summon Goblin</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Summon', 'Goblin']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PAST</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Astral Cards</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{2}, {T}, Pay {R} for each target: Tap any number of random target creatures. Goblins tapped in this way do not untap during their controllers' next untap phases.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Quinton Hoover</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>['PAST']</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0837763b-6181-5f83-9e59-5fb6e10a6e7a</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prismatic Dragon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{2}{W}{W}</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['White']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['W']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Summon Dragon</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Summon', 'Dragon']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PAST</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Astral Cards</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Flying
+During your upkeep, Prismatic Dragon becomes a random color permanently.
+{2}: Prismatic Dragon becomes a random color permanently.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Amy Weber</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>['PAST']</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>6ea40899-a909-516c-9872-2953f1289b21</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rainbow Knights</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{W}{W}</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['White']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['W']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Summon Knights</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Summon', 'Knights']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PAST</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Astral Cards</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>When Rainbow Knights comes into play, it gains protection from a random color permanently.
+{1}: First strike until end of turn.
+{W}{W}: +0/+0, +1/+0 or +2/+0 until end of turn chosen at random.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Douglas Shuler</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>['PAST']</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>a83fadbc-59fa-5944-b721-e8b4b1f7822f</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1996 World Champion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{W}{U}{B}{R}{G}</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['Black', 'Green', 'Red', 'Blue', 'White']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['B', 'G', 'R', 'U', 'W']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Summon — Legend</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Summon']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PCEL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Celebration Cards</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Cannot be the target of spells or effects. World Champion has power and toughness equal to the life total of target opponent.
+{0}: Discard your hand to search your library for 1996 World Champion and reveal it to all players. Shuffle your library and put 1996 World Champion on top of it. Use this ability only at the beginning of your upkeep, and only if 1996 World Champion is in your library.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Christopher Rush</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>['PCEL']</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>d8fc1dd2-020a-5e02-acb5-5a4b70583a78</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>['Legend']</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>It takes great sacrifice to make it to the top.</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Shichifukujin Dragon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{6}{R}{R}{R}</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['Red']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['R']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Summon — Dragon</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Summon']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PCEL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Celebration Cards</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>When Shichifukujin Dragon comes into play, put seven +1/+1 counters on it.
+{R}{R}{R}, Sacrifice two +1/+1 counters: Put three +1/+1 counters on Shichifukujin Dragon at end of turn. Play this ability as a sorcery.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Christopher Rush</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>['PCEL']</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>7d8a2fe5-7b39-5d4f-b654-b55d3124a06b</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>['Dragon']</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aswan Jaguar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{1}{G}{G}</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['Green']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['G']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Summon Jaguar</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Summon', 'Jaguar']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PMIC</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MicroProse Promos</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>When Aswan Jaguar comes into play, choose a random creature type from those in target opponent's deck.
+{G}{G}, {T}: Bury target creature of the chosen type.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Pat Lewis</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>['PAST', 'PMIC']</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>3c0b8b8c-bed6-5711-b32a-923dec81e711</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Old Fogey</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{G}{G}</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['Green']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['G']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Summon — Dinosaur</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Summon']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Unsanctioned</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Phasing, cumulative upkeep {1}, echo {G}{G}, fading 3, bands with other Dinosaurs, protection from Homarids, snow-covered plainswalk, flanking, rampage 2</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Douglas Shuler</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>479456</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>http://gatherer.wizards.com/Handlers/Image.ashx?multiverseid=479456&amp;type=card</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[{'date': '2020-02-29', 'text': 'Due to changes in how echo and phasing work since Old Fogey was originally printed, echo mostly does nothing in this case. This is, as they say, a bit weird. Old Fogey is phased out when its echo ability would trigger, so that ability doesn’t trigger at the beginning of the upkeep after Old Fogey enters the battlefield. Phasing in doesn’t cause Old Fogey to enter the battlefield, so echo ends up not really doing much at all.'}]</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>['UND', 'UNH']</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Phasing, cumulative upkeep {1}, echo, fading 3, bands with other Dinosaurs, protection from Homarids, snow-covered plainswalk, flanking, rampage 2</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Summon — Dinosaur</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>17ccd14d-a756-5f95-a80d-6b423ae525b9</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>['Dinosaur']</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>"These kids today with their collector numbers and their newfangled tap symbol. Twenty Black Lotuses and twenty Plague Rats. Now that's *real* Magic."</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Old Fogey</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{G}{G}</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['Green']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['G']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Summon — Dinosaur</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Summon']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Unhinged</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Phasing, cumulative upkeep {1}, echo {G}{G}, fading 3, bands with other Dinosaurs, protection from Homarids, snow-covered plainswalk, flanking, rampage 2</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Douglas Shuler</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>106★</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>[{'date': '2020-02-29', 'text': 'Due to changes in how echo and phasing work since Old Fogey was originally printed, echo mostly does nothing in this case. This is, as they say, a bit weird. Old Fogey is phased out when its echo ability would trigger, so that ability doesn’t trigger at the beginning of the upkeep after Old Fogey enters the battlefield. Phasing in doesn’t cause Old Fogey to enter the battlefield, so echo ends up not really doing much at all.'}]</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>['UND', 'UNH']</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>17ad0580-e193-5bf1-9df1-1db70c3532c4</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>['Dinosaur']</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>"These kids today with their collector numbers and their newfangled tap symbol. Twenty Black Lotuses and twenty Plague Rats. Now that's *real* Magic."</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>['9d36443d-3ee5-598d-9b12-8cce6eafe6cf']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Old Fogey</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{G}{G}</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['Green']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['G']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Summon — Dinosaur</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Summon']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Unhinged</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Phasing, cumulative upkeep {1}, echo {G}{G}, fading 3, bands with other Dinosaurs, protection from Homarids, snow-covered plainswalk, flanking, rampage 2</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Douglas Shuler</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>74235</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>http://gatherer.wizards.com/Handlers/Image.ashx?multiverseid=74235&amp;type=card</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[{'date': '2020-02-29', 'text': 'Due to changes in how echo and phasing work since Old Fogey was originally printed, echo mostly does nothing in this case. This is, as they say, a bit weird. Old Fogey is phased out when its echo ability would trigger, so that ability doesn’t trigger at the beginning of the upkeep after Old Fogey enters the battlefield. Phasing in doesn’t cause Old Fogey to enter the battlefield, so echo ends up not really doing much at all.'}]</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>['UND', 'UNH']</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Phasing, cumulative upkeep {1}, echo, fading 3, bands with other Dinosaurs, protection from Homarids, snow-covered plainswalk, flanking, rampage 2</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Summon - Dinosaur</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>9d36443d-3ee5-598d-9b12-8cce6eafe6cf</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>['Dinosaur']</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>"These kids today with their collector numbers and their newfangled tap symbol. Twenty Black Lotuses and twenty Plague Rats. Now that's *real* Magic."</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>['17ad0580-e193-5bf1-9df1-1db70c3532c4']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>